--- a/data/MSC/dmat/PlanoCurso_9264_Matemática e Aplicações.xlsx
+++ b/data/MSC/dmat/PlanoCurso_9264_Matemática e Aplicações.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Library/CloudStorage/Dropbox/Toze/continUA/CE/levantamento CE/MSC/dmat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/rita_almeida_ua_pt/Documents/Documents/Levantamento UCs Mestrado + CE/dmat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F100B86F-9C13-DD48-BAB5-99240D88B693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{F0B8958B-6A35-4E15-A1FF-80F36420DA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D5B2B83-7AC9-4D88-8DAE-0798E55DBF5C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{6EBF56F9-EA16-497F-933F-AB1C26857AB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EBF56F9-EA16-497F-933F-AB1C26857AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulta" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="225">
   <si>
     <t>PROCESSOS ESTOCÁSTICOS E FILAS DE ESPERA</t>
   </si>
@@ -495,6 +495,9 @@
     <t>Nº Total de Páginas: 1   (Num. Máx. Registos por Página: 150000)</t>
   </si>
   <si>
+    <t>Ramo - Estatistica e Otimização</t>
+  </si>
+  <si>
     <t>GEOMETRIA RIEMANNIANA</t>
   </si>
   <si>
@@ -597,6 +600,9 @@
     <t>FUNDAMENTALS OF FUNCTIONAL PROGRAMMING</t>
   </si>
   <si>
+    <t>Ramo - Matemática</t>
+  </si>
+  <si>
     <t>OPÇÃO CI-1</t>
   </si>
   <si>
@@ -703,6 +709,9 @@
   </si>
   <si>
     <t>OPTION CI-4</t>
+  </si>
+  <si>
+    <t>Ramo - Computação</t>
   </si>
 </sst>
 </file>
@@ -755,12 +764,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -775,13 +790,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +815,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1116,236 +1136,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7309A4-C714-4FD2-A00B-FCA7800F77A4}">
-  <dimension ref="A1:AE142"/>
+  <dimension ref="A1:AE149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="35" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="49" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>41163</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>42759</v>
-      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1423,15 +1362,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>43351</v>
+        <v>42759</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1509,15 +1448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>47573</v>
+        <v>43351</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1595,15 +1534,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>49747</v>
+        <v>47573</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1636,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1660,7 +1599,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>8</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1672,15 +1620,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>41165</v>
+        <v>49747</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1713,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1737,25 +1685,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W7" t="s">
-        <v>6</v>
-      </c>
-      <c r="X7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z7">
-        <v>49747</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1764,15 +1697,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>45587</v>
+        <v>41165</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1832,13 +1765,13 @@
         <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Z8">
         <v>49747</v>
@@ -1856,15 +1789,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>41164</v>
+        <v>45587</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1924,13 +1857,13 @@
         <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X9" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Z9">
         <v>49747</v>
@@ -1948,15 +1881,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>41915</v>
+        <v>41164</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2040,15 +1973,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>47510</v>
+        <v>41915</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2132,15 +2065,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>42760</v>
+        <v>47510</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2224,15 +2157,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>41474</v>
+        <v>42760</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2316,15 +2249,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>47695</v>
+        <v>41474</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2384,13 +2317,13 @@
         <v>5</v>
       </c>
       <c r="W14" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="X14" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="Z14">
         <v>49747</v>
@@ -2408,36 +2341,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>41167</v>
+        <v>47695</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2476,16 +2409,22 @@
         <v>5</v>
       </c>
       <c r="W15" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="X15" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>49747</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>16</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -2494,15 +2433,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>47471</v>
+        <v>41167</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2580,15 +2519,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>47724</v>
+        <v>47471</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2666,15 +2605,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>47756</v>
+        <v>47724</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2752,15 +2691,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>49746</v>
+        <v>47756</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2793,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2817,7 +2756,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>8</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2829,15 +2777,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>41532</v>
+        <v>49746</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2870,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2894,25 +2842,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" t="s">
-        <v>6</v>
-      </c>
-      <c r="X20" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z20">
-        <v>49746</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -2921,15 +2854,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>41687</v>
+        <v>41532</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2989,13 +2922,13 @@
         <v>5</v>
       </c>
       <c r="W21" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="X21" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="Z21">
         <v>49746</v>
@@ -3013,15 +2946,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>41092</v>
+        <v>41687</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3081,13 +3014,13 @@
         <v>5</v>
       </c>
       <c r="W22" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="X22" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="Y22" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="Z22">
         <v>49746</v>
@@ -3105,15 +3038,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>41093</v>
+        <v>41092</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3197,15 +3130,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>41916</v>
+        <v>41093</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3265,13 +3198,13 @@
         <v>5</v>
       </c>
       <c r="W24" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="X24" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="Z24">
         <v>49746</v>
@@ -3289,15 +3222,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>40989</v>
+        <v>41916</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3357,13 +3290,13 @@
         <v>5</v>
       </c>
       <c r="W25" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="X25" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="Z25">
         <v>49746</v>
@@ -3381,15 +3314,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>47667</v>
+        <v>40989</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3449,13 +3382,13 @@
         <v>5</v>
       </c>
       <c r="W26" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="X26" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="Y26" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="Z26">
         <v>49746</v>
@@ -3473,36 +3406,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>49991</v>
+        <v>47667</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3514,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3540,8 +3473,23 @@
       <c r="V27" t="s">
         <v>5</v>
       </c>
+      <c r="W27" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>8</v>
+      </c>
       <c r="Z27">
-        <v>0</v>
+        <v>49746</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>51</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -3550,36 +3498,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>49745</v>
+        <v>49991</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3597,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3615,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3627,15 +3575,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>45587</v>
+        <v>49745</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -3668,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3692,25 +3640,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" t="s">
-        <v>22</v>
-      </c>
-      <c r="X29" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z29">
-        <v>49745</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -3719,15 +3652,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>47510</v>
+        <v>45587</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3787,13 +3720,13 @@
         <v>5</v>
       </c>
       <c r="W30" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X30" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Z30">
         <v>49745</v>
@@ -3811,15 +3744,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>47695</v>
+        <v>47510</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -3879,13 +3812,13 @@
         <v>5</v>
       </c>
       <c r="W31" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="X31" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="Z31">
         <v>49745</v>
@@ -3903,15 +3836,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>42760</v>
+        <v>47695</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3971,13 +3904,13 @@
         <v>5</v>
       </c>
       <c r="W32" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="X32" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="Z32">
         <v>49745</v>
@@ -3995,15 +3928,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>41474</v>
+        <v>42760</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -4087,15 +4020,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>41164</v>
+        <v>41474</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4179,15 +4112,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>41165</v>
+        <v>41164</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -4271,15 +4204,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>41915</v>
+        <v>41165</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -4363,15 +4296,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>49931</v>
+        <v>41915</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -4404,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -4428,10 +4361,25 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W37" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>8</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>49745</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>77</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -4440,15 +4388,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>41474</v>
+        <v>49931</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4481,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -4505,25 +4453,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>5</v>
-      </c>
-      <c r="W38" t="s">
-        <v>6</v>
-      </c>
-      <c r="X38" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z38">
-        <v>49931</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -4532,15 +4465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>41164</v>
+        <v>41474</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4624,15 +4557,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>43370</v>
+        <v>41164</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4647,10 +4580,10 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4665,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -4692,13 +4625,13 @@
         <v>5</v>
       </c>
       <c r="W40" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="X40" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="Y40" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="Z40">
         <v>49931</v>
@@ -4716,15 +4649,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>47548</v>
+        <v>43370</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -4739,10 +4672,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4757,10 +4690,10 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4784,13 +4717,13 @@
         <v>5</v>
       </c>
       <c r="W41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="X41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Y41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Z41">
         <v>49931</v>
@@ -4808,15 +4741,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41006</v>
+        <v>47548</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -4876,13 +4809,13 @@
         <v>5</v>
       </c>
       <c r="W42" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="X42" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="Y42" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="Z42">
         <v>49931</v>
@@ -4900,15 +4833,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>47607</v>
+        <v>41006</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -4968,13 +4901,13 @@
         <v>5</v>
       </c>
       <c r="W43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="X43" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="Y43" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Z43">
         <v>49931</v>
@@ -4992,15 +4925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>40751</v>
+        <v>47607</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -5060,13 +4993,13 @@
         <v>5</v>
       </c>
       <c r="W44" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="X44" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="Y44" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z44">
         <v>49931</v>
@@ -5084,15 +5017,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>41527</v>
+        <v>40751</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -5152,13 +5085,13 @@
         <v>5</v>
       </c>
       <c r="W45" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="X45" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="Y45" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="Z45">
         <v>49931</v>
@@ -5176,15 +5109,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>42201</v>
+        <v>41527</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -5244,13 +5177,13 @@
         <v>5</v>
       </c>
       <c r="W46" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="X46" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="Y46" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="Z46">
         <v>49931</v>
@@ -5268,15 +5201,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46671</v>
+        <v>42201</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -5336,13 +5269,13 @@
         <v>5</v>
       </c>
       <c r="W47" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="X47" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="Y47" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="Z47">
         <v>49931</v>
@@ -5360,15 +5293,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>45587</v>
+        <v>46671</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -5428,13 +5361,13 @@
         <v>5</v>
       </c>
       <c r="W48" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="X48" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="Y48" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="Z48">
         <v>49931</v>
@@ -5452,15 +5385,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>41169</v>
+        <v>45587</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -5493,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -5505,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -5520,13 +5453,13 @@
         <v>5</v>
       </c>
       <c r="W49" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X49" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="Y49" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Z49">
         <v>49931</v>
@@ -5544,15 +5477,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>41019</v>
+        <v>41169</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -5582,13 +5515,13 @@
         <v>4</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -5597,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -5612,13 +5545,13 @@
         <v>5</v>
       </c>
       <c r="W50" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="X50" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="Y50" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="Z50">
         <v>49931</v>
@@ -5636,15 +5569,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>41165</v>
+        <v>41019</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -5674,13 +5607,13 @@
         <v>4</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -5704,13 +5637,13 @@
         <v>5</v>
       </c>
       <c r="W51" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="X51" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="Y51" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="Z51">
         <v>49931</v>
@@ -5728,15 +5661,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>47880</v>
+        <v>41165</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -5796,13 +5729,13 @@
         <v>5</v>
       </c>
       <c r="W52" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="X52" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="Y52" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="Z52">
         <v>49931</v>
@@ -5820,15 +5753,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>41915</v>
+        <v>47880</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -5888,13 +5821,13 @@
         <v>5</v>
       </c>
       <c r="W53" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="X53" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="Y53" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="Z53">
         <v>49931</v>
@@ -5912,15 +5845,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>47553</v>
+        <v>41915</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -5980,13 +5913,13 @@
         <v>5</v>
       </c>
       <c r="W54" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="X54" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="Y54" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="Z54">
         <v>49931</v>
@@ -6004,18 +5937,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>42752</v>
+        <v>47553</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
         <v>2</v>
@@ -6072,16 +6005,22 @@
         <v>5</v>
       </c>
       <c r="W55" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="X55" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="Y55" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>49931</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>79</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -6090,273 +6029,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>42753</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE58" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>42752</v>
+      </c>
+      <c r="B59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" t="s">
         <v>154</v>
-      </c>
-      <c r="C56" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>6</v>
-      </c>
-      <c r="I56">
-        <v>6</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
-        <v>4</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>3</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56" t="s">
-        <v>5</v>
-      </c>
-      <c r="W56" t="s">
-        <v>6</v>
-      </c>
-      <c r="X56" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>42755</v>
-      </c>
-      <c r="B57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>6</v>
-      </c>
-      <c r="I57">
-        <v>6</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>3</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" t="s">
-        <v>6</v>
-      </c>
-      <c r="X57" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>43351</v>
-      </c>
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>6</v>
-      </c>
-      <c r="I58">
-        <v>6</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>3</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" t="s">
-        <v>6</v>
-      </c>
-      <c r="X58" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>49739</v>
-      </c>
-      <c r="B59" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" t="s">
-        <v>159</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -6389,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -6413,7 +6194,16 @@
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W59" t="s">
+        <v>6</v>
+      </c>
+      <c r="X59" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>8</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6425,15 +6215,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>47837</v>
+        <v>42753</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -6502,30 +6292,24 @@
         <v>8</v>
       </c>
       <c r="Z60">
-        <v>49739</v>
-      </c>
-      <c r="AA60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>42755</v>
+      </c>
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
         <v>158</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>41164</v>
-      </c>
-      <c r="B61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -6594,13 +6378,7 @@
         <v>8</v>
       </c>
       <c r="Z61">
-        <v>49739</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -6609,15 +6387,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>42760</v>
+        <v>43351</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -6686,30 +6464,24 @@
         <v>8</v>
       </c>
       <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>49739</v>
       </c>
-      <c r="AA62" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB62" t="s">
+      <c r="B63" t="s">
         <v>159</v>
       </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>42761</v>
-      </c>
-      <c r="B63" t="s">
-        <v>33</v>
-      </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -6742,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -6766,25 +6538,10 @@
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>5</v>
-      </c>
-      <c r="W63" t="s">
-        <v>6</v>
-      </c>
-      <c r="X63" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z63">
-        <v>49739</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -6793,15 +6550,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>47510</v>
+        <v>47837</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -6873,10 +6630,10 @@
         <v>49739</v>
       </c>
       <c r="AA64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -6885,15 +6642,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>42762</v>
+        <v>41164</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -6965,10 +6722,10 @@
         <v>49739</v>
       </c>
       <c r="AA65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -6977,36 +6734,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>42756</v>
+        <v>42760</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>6</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J66">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -7054,7 +6811,13 @@
         <v>8</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>49739</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>160</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -7063,36 +6826,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>47756</v>
+        <v>42761</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>6</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -7140,7 +6903,13 @@
         <v>8</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>49739</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>160</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -7149,36 +6918,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>49740</v>
+        <v>47510</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>6</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -7190,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -7214,10 +6983,25 @@
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W68" t="s">
+        <v>6</v>
+      </c>
+      <c r="X68" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>8</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>49739</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>160</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -7226,36 +7010,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>47667</v>
+        <v>42762</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>6</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -7303,30 +7087,30 @@
         <v>8</v>
       </c>
       <c r="Z69">
-        <v>49740</v>
+        <v>49739</v>
       </c>
       <c r="AA69" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>42756</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" t="s">
         <v>167</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>47516</v>
-      </c>
-      <c r="B70" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" t="s">
-        <v>170</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -7395,13 +7179,7 @@
         <v>8</v>
       </c>
       <c r="Z70">
-        <v>49740</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -7410,15 +7188,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>41093</v>
+        <v>47756</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -7487,30 +7265,24 @@
         <v>8</v>
       </c>
       <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>49740</v>
       </c>
-      <c r="AA71" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB71" t="s">
+      <c r="B72" t="s">
         <v>168</v>
       </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>41094</v>
-      </c>
-      <c r="B72" t="s">
-        <v>171</v>
-      </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -7543,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -7567,25 +7339,10 @@
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" t="s">
-        <v>6</v>
-      </c>
-      <c r="X72" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z72">
-        <v>49740</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AD72">
         <v>0</v>
@@ -7594,15 +7351,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>47471</v>
+        <v>47667</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -7674,10 +7431,10 @@
         <v>49740</v>
       </c>
       <c r="AA73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD73">
         <v>0</v>
@@ -7686,15 +7443,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>41091</v>
+        <v>47516</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -7766,10 +7523,10 @@
         <v>49740</v>
       </c>
       <c r="AA74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD74">
         <v>0</v>
@@ -7778,15 +7535,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>43611</v>
+        <v>41093</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -7858,10 +7615,10 @@
         <v>49740</v>
       </c>
       <c r="AA75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD75">
         <v>0</v>
@@ -7870,15 +7627,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>49847</v>
+        <v>41094</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -7911,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -7935,10 +7692,25 @@
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W76" t="s">
+        <v>6</v>
+      </c>
+      <c r="X76" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>8</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>49740</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>169</v>
       </c>
       <c r="AD76">
         <v>0</v>
@@ -7947,15 +7719,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>47516</v>
+        <v>47471</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -8024,13 +7796,13 @@
         <v>8</v>
       </c>
       <c r="Z77">
-        <v>49847</v>
+        <v>49740</v>
       </c>
       <c r="AA77" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AB77" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AD77">
         <v>0</v>
@@ -8039,15 +7811,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>41093</v>
+        <v>41091</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -8116,30 +7888,30 @@
         <v>8</v>
       </c>
       <c r="Z78">
-        <v>49847</v>
+        <v>49740</v>
       </c>
       <c r="AA78" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>43611</v>
+      </c>
+      <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" t="s">
         <v>177</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>41094</v>
-      </c>
-      <c r="B79" t="s">
-        <v>171</v>
-      </c>
-      <c r="C79" t="s">
-        <v>172</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -8208,30 +7980,30 @@
         <v>8</v>
       </c>
       <c r="Z79">
+        <v>49740</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>49847</v>
       </c>
-      <c r="AA79" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB79" t="s">
+      <c r="B80" t="s">
         <v>178</v>
       </c>
-      <c r="AD79">
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>47667</v>
-      </c>
-      <c r="B80" t="s">
-        <v>70</v>
-      </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -8264,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -8288,25 +8060,10 @@
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>5</v>
-      </c>
-      <c r="W80" t="s">
-        <v>6</v>
-      </c>
-      <c r="X80" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z80">
-        <v>49847</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="AD80">
         <v>0</v>
@@ -8315,15 +8072,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>47471</v>
+        <v>47516</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -8395,10 +8152,10 @@
         <v>49847</v>
       </c>
       <c r="AA81" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD81">
         <v>0</v>
@@ -8407,15 +8164,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>41091</v>
+        <v>41093</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -8487,10 +8244,10 @@
         <v>49847</v>
       </c>
       <c r="AA82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD82">
         <v>0</v>
@@ -8499,15 +8256,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>43611</v>
+        <v>41094</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -8579,10 +8336,10 @@
         <v>49847</v>
       </c>
       <c r="AA83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD83">
         <v>0</v>
@@ -8591,15 +8348,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>49903</v>
+        <v>47667</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -8632,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -8656,10 +8413,25 @@
         <v>0</v>
       </c>
       <c r="V84" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W84" t="s">
+        <v>6</v>
+      </c>
+      <c r="X84" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>8</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>49847</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>179</v>
       </c>
       <c r="AD84">
         <v>0</v>
@@ -8668,36 +8440,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>49991</v>
+        <v>47471</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C85" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I85">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -8709,13 +8481,13 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O85">
         <v>0</v>
       </c>
       <c r="P85">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -8735,8 +8507,23 @@
       <c r="V85" t="s">
         <v>5</v>
       </c>
+      <c r="W85" t="s">
+        <v>6</v>
+      </c>
+      <c r="X85" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>8</v>
+      </c>
       <c r="Z85">
-        <v>0</v>
+        <v>49847</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>179</v>
       </c>
       <c r="AD85">
         <v>0</v>
@@ -8745,36 +8532,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>49701</v>
+        <v>41091</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86">
         <v>6</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -8786,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -8810,10 +8597,25 @@
         <v>0</v>
       </c>
       <c r="V86" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W86" t="s">
+        <v>6</v>
+      </c>
+      <c r="X86" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>8</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>49847</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>179</v>
       </c>
       <c r="AD86">
         <v>0</v>
@@ -8822,42 +8624,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>42761</v>
+        <v>43611</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87">
         <v>6</v>
       </c>
       <c r="I87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -8899,51 +8701,51 @@
         <v>8</v>
       </c>
       <c r="Z87">
-        <v>49701</v>
+        <v>49847</v>
       </c>
       <c r="AA87" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>49903</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
         <v>181</v>
       </c>
-      <c r="AB87" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD87">
-        <v>0</v>
-      </c>
-      <c r="AE87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>47510</v>
-      </c>
-      <c r="B88" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" t="s">
-        <v>30</v>
-      </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88">
         <v>6</v>
       </c>
       <c r="I88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -8955,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -8979,25 +8781,10 @@
         <v>0</v>
       </c>
       <c r="V88" t="s">
-        <v>5</v>
-      </c>
-      <c r="W88" t="s">
-        <v>6</v>
-      </c>
-      <c r="X88" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z88">
-        <v>49701</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="AD88">
         <v>0</v>
@@ -9006,36 +8793,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>47837</v>
+        <v>49991</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="F89" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I89">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -9047,13 +8834,13 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -9073,40 +8860,25 @@
       <c r="V89" t="s">
         <v>5</v>
       </c>
-      <c r="W89" t="s">
-        <v>6</v>
-      </c>
-      <c r="X89" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>8</v>
-      </c>
       <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>49701</v>
       </c>
-      <c r="AA89" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB89" t="s">
+      <c r="B90" t="s">
         <v>182</v>
       </c>
-      <c r="AD89">
-        <v>0</v>
-      </c>
-      <c r="AE89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>41474</v>
-      </c>
-      <c r="B90" t="s">
-        <v>33</v>
-      </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -9139,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -9163,69 +8935,54 @@
         <v>0</v>
       </c>
       <c r="V90" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>42761</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>163</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
         <v>5</v>
       </c>
-      <c r="W90" t="s">
-        <v>6</v>
-      </c>
-      <c r="X90" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z90">
-        <v>49701</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD90">
-        <v>0</v>
-      </c>
-      <c r="AE90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>41164</v>
-      </c>
-      <c r="B91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>6</v>
-      </c>
-      <c r="I91">
-        <v>6</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
       <c r="L91" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9270,10 +9027,10 @@
         <v>49701</v>
       </c>
       <c r="AA91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD91">
         <v>0</v>
@@ -9282,15 +9039,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>42760</v>
+        <v>47510</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -9362,10 +9119,10 @@
         <v>49701</v>
       </c>
       <c r="AA92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD92">
         <v>0</v>
@@ -9374,15 +9131,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>42762</v>
+        <v>47837</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -9454,10 +9211,10 @@
         <v>49701</v>
       </c>
       <c r="AA93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD93">
         <v>0</v>
@@ -9466,15 +9223,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>49931</v>
+        <v>41474</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -9507,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -9531,10 +9288,25 @@
         <v>0</v>
       </c>
       <c r="V94" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W94" t="s">
+        <v>6</v>
+      </c>
+      <c r="X94" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>8</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>49701</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>183</v>
       </c>
       <c r="AD94">
         <v>0</v>
@@ -9543,15 +9315,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>41915</v>
+        <v>41164</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -9620,13 +9392,13 @@
         <v>8</v>
       </c>
       <c r="Z95">
-        <v>49931</v>
+        <v>49701</v>
       </c>
       <c r="AA95" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="AB95" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AD95">
         <v>0</v>
@@ -9635,15 +9407,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>47553</v>
+        <v>42760</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -9703,22 +9475,22 @@
         <v>5</v>
       </c>
       <c r="W96" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="X96" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="Y96" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="Z96">
-        <v>49931</v>
+        <v>49701</v>
       </c>
       <c r="AA96" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="AB96" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AD96">
         <v>0</v>
@@ -9727,15 +9499,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>42757</v>
+        <v>42762</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -9804,33 +9576,33 @@
         <v>8</v>
       </c>
       <c r="Z97">
+        <v>49701</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>49931</v>
       </c>
-      <c r="AA97" t="s">
+      <c r="B98" t="s">
         <v>78</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="C98" t="s">
         <v>79</v>
       </c>
-      <c r="AD97">
-        <v>0</v>
-      </c>
-      <c r="AE97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>42757</v>
-      </c>
-      <c r="B98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C98" t="s">
-        <v>185</v>
-      </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
         <v>2</v>
@@ -9860,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -9884,16 +9656,7 @@
         <v>0</v>
       </c>
       <c r="V98" t="s">
-        <v>5</v>
-      </c>
-      <c r="W98" t="s">
-        <v>6</v>
-      </c>
-      <c r="X98" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9905,18 +9668,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>43351</v>
+        <v>41915</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="s">
         <v>2</v>
@@ -9982,7 +9745,13 @@
         <v>8</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>49931</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>79</v>
       </c>
       <c r="AD99">
         <v>0</v>
@@ -9991,18 +9760,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>47837</v>
+        <v>47553</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
         <v>2</v>
@@ -10059,16 +9828,22 @@
         <v>5</v>
       </c>
       <c r="W100" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="X100" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="Y100" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>49931</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>79</v>
       </c>
       <c r="AD100">
         <v>0</v>
@@ -10077,18 +9852,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>49741</v>
+        <v>42757</v>
       </c>
       <c r="B101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" t="s">
         <v>186</v>
       </c>
-      <c r="C101" t="s">
-        <v>187</v>
-      </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" t="s">
         <v>2</v>
@@ -10118,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -10142,10 +9917,25 @@
         <v>0</v>
       </c>
       <c r="V101" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W101" t="s">
+        <v>6</v>
+      </c>
+      <c r="X101" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>8</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>49931</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>79</v>
       </c>
       <c r="AD101">
         <v>0</v>
@@ -10154,291 +9944,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>42759</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
-        <v>2</v>
-      </c>
-      <c r="F102" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>6</v>
-      </c>
-      <c r="I102">
-        <v>6</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="N102">
-        <v>3</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-      <c r="S102">
-        <v>0</v>
-      </c>
-      <c r="T102">
-        <v>0</v>
-      </c>
-      <c r="U102">
-        <v>0</v>
-      </c>
-      <c r="V102" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" t="s">
-        <v>6</v>
-      </c>
-      <c r="X102" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y102" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z102">
-        <v>49741</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="103" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U104" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V104" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W104" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="X104" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z104" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB104" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE104" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>42757</v>
+      </c>
+      <c r="B105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" t="s">
         <v>186</v>
-      </c>
-      <c r="AB102" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD102">
-        <v>0</v>
-      </c>
-      <c r="AE102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>42761</v>
-      </c>
-      <c r="B103" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" t="s">
-        <v>162</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103" t="s">
-        <v>2</v>
-      </c>
-      <c r="F103" t="s">
-        <v>3</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>6</v>
-      </c>
-      <c r="I103">
-        <v>6</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>5</v>
-      </c>
-      <c r="L103" t="s">
-        <v>183</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>3</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
-      <c r="T103">
-        <v>0</v>
-      </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
-      <c r="V103" t="s">
-        <v>5</v>
-      </c>
-      <c r="W103" t="s">
-        <v>6</v>
-      </c>
-      <c r="X103" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z103">
-        <v>49741</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB103" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD103">
-        <v>0</v>
-      </c>
-      <c r="AE103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>41474</v>
-      </c>
-      <c r="B104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" t="s">
-        <v>34</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104" t="s">
-        <v>2</v>
-      </c>
-      <c r="F104" t="s">
-        <v>3</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>6</v>
-      </c>
-      <c r="I104">
-        <v>6</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104" t="s">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104">
-        <v>3</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-      <c r="S104">
-        <v>0</v>
-      </c>
-      <c r="T104">
-        <v>0</v>
-      </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-      <c r="V104" t="s">
-        <v>5</v>
-      </c>
-      <c r="W104" t="s">
-        <v>6</v>
-      </c>
-      <c r="X104" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z104">
-        <v>49741</v>
-      </c>
-      <c r="AA104" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB104" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD104">
-        <v>0</v>
-      </c>
-      <c r="AE104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>45622</v>
-      </c>
-      <c r="B105" t="s">
-        <v>188</v>
-      </c>
-      <c r="C105" t="s">
-        <v>189</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -10507,13 +10121,7 @@
         <v>8</v>
       </c>
       <c r="Z105">
-        <v>49741</v>
-      </c>
-      <c r="AA105" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB105" t="s">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="AD105">
         <v>0</v>
@@ -10522,15 +10130,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>41165</v>
+        <v>43351</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -10599,13 +10207,7 @@
         <v>8</v>
       </c>
       <c r="Z106">
-        <v>49741</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB106" t="s">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="AD106">
         <v>0</v>
@@ -10614,15 +10216,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>42755</v>
+        <v>47837</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -10691,30 +10293,24 @@
         <v>8</v>
       </c>
       <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>49741</v>
       </c>
-      <c r="AA107" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB107" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD107">
-        <v>0</v>
-      </c>
-      <c r="AE107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>42760</v>
-      </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -10747,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O108">
         <v>0</v>
@@ -10771,25 +10367,10 @@
         <v>0</v>
       </c>
       <c r="V108" t="s">
-        <v>5</v>
-      </c>
-      <c r="W108" t="s">
-        <v>6</v>
-      </c>
-      <c r="X108" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z108">
-        <v>49741</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB108" t="s">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="AD108">
         <v>0</v>
@@ -10798,15 +10379,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>42762</v>
+        <v>42759</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -10830,10 +10411,10 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -10878,10 +10459,10 @@
         <v>49741</v>
       </c>
       <c r="AA109" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB109" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD109">
         <v>0</v>
@@ -10890,15 +10471,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>41747</v>
+        <v>42761</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -10922,10 +10503,10 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L110" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -10970,10 +10551,10 @@
         <v>49741</v>
       </c>
       <c r="AA110" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB110" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD110">
         <v>0</v>
@@ -10982,15 +10563,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>49742</v>
+        <v>41474</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -11023,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O111">
         <v>0</v>
@@ -11047,10 +10628,25 @@
         <v>0</v>
       </c>
       <c r="V111" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W111" t="s">
+        <v>6</v>
+      </c>
+      <c r="X111" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>8</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>49741</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>189</v>
       </c>
       <c r="AD111">
         <v>0</v>
@@ -11059,15 +10655,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>45587</v>
+        <v>45622</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -11127,22 +10723,22 @@
         <v>5</v>
       </c>
       <c r="W112" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="X112" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Y112" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Z112">
-        <v>49742</v>
+        <v>49741</v>
       </c>
       <c r="AA112" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AB112" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AD112">
         <v>0</v>
@@ -11151,15 +10747,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>41746</v>
+        <v>41165</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -11219,22 +10815,22 @@
         <v>5</v>
       </c>
       <c r="W113" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="X113" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="Y113" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="Z113">
-        <v>49742</v>
+        <v>49741</v>
       </c>
       <c r="AA113" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AB113" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AD113">
         <v>0</v>
@@ -11243,15 +10839,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>47053</v>
+        <v>42755</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C114" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -11311,22 +10907,22 @@
         <v>5</v>
       </c>
       <c r="W114" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="X114" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Y114" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Z114">
-        <v>49742</v>
+        <v>49741</v>
       </c>
       <c r="AA114" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AB114" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AD114">
         <v>0</v>
@@ -11335,15 +10931,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>47502</v>
+        <v>42760</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -11367,10 +10963,10 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -11403,22 +10999,22 @@
         <v>5</v>
       </c>
       <c r="W115" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="X115" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Y115" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Z115">
-        <v>49742</v>
+        <v>49741</v>
       </c>
       <c r="AA115" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AB115" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AD115">
         <v>0</v>
@@ -11427,15 +11023,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>40776</v>
+        <v>42762</v>
       </c>
       <c r="B116" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="C116" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -11459,19 +11055,19 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L116" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="M116">
         <v>0</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -11495,39 +11091,39 @@
         <v>5</v>
       </c>
       <c r="W116" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="X116" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="Y116" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="Z116">
-        <v>49742</v>
+        <v>49741</v>
       </c>
       <c r="AA116" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>41747</v>
+      </c>
+      <c r="B117" t="s">
         <v>192</v>
       </c>
-      <c r="AB116" t="s">
+      <c r="C117" t="s">
         <v>193</v>
-      </c>
-      <c r="AD116">
-        <v>0</v>
-      </c>
-      <c r="AE116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>40751</v>
-      </c>
-      <c r="B117" t="s">
-        <v>94</v>
-      </c>
-      <c r="C117" t="s">
-        <v>95</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -11587,60 +11183,60 @@
         <v>5</v>
       </c>
       <c r="W117" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="X117" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="Y117" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="Z117">
+        <v>49741</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>49742</v>
       </c>
-      <c r="AA117" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB117" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD117">
-        <v>0</v>
-      </c>
-      <c r="AE117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>42758</v>
-      </c>
       <c r="B118" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C118" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>6</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J118">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>1</v>
@@ -11652,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O118">
         <v>0</v>
@@ -11676,16 +11272,7 @@
         <v>0</v>
       </c>
       <c r="V118" t="s">
-        <v>5</v>
-      </c>
-      <c r="W118" t="s">
-        <v>6</v>
-      </c>
-      <c r="X118" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z118">
         <v>0</v>
@@ -11697,36 +11284,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>47516</v>
+        <v>45587</v>
       </c>
       <c r="B119" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>6</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J119">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K119">
         <v>1</v>
@@ -11765,16 +11352,22 @@
         <v>5</v>
       </c>
       <c r="W119" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X119" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="Y119" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>49742</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>195</v>
       </c>
       <c r="AD119">
         <v>0</v>
@@ -11783,36 +11376,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>47662</v>
+        <v>41746</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C120" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>6</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J120">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K120">
         <v>1</v>
@@ -11851,16 +11444,22 @@
         <v>5</v>
       </c>
       <c r="W120" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="X120" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="Y120" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>49742</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>195</v>
       </c>
       <c r="AD120">
         <v>0</v>
@@ -11869,36 +11468,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>47756</v>
+        <v>47053</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>6</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J121">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K121">
         <v>1</v>
@@ -11937,16 +11536,22 @@
         <v>5</v>
       </c>
       <c r="W121" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X121" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="Y121" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>49742</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>195</v>
       </c>
       <c r="AD121">
         <v>0</v>
@@ -11955,48 +11560,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>49743</v>
+        <v>47502</v>
       </c>
       <c r="B122" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C122" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>6</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J122">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L122" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O122">
         <v>0</v>
@@ -12020,10 +11625,25 @@
         <v>0</v>
       </c>
       <c r="V122" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W122" t="s">
+        <v>22</v>
+      </c>
+      <c r="X122" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>24</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>49742</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>195</v>
       </c>
       <c r="AD122">
         <v>0</v>
@@ -12032,36 +11652,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>42763</v>
+        <v>40776</v>
       </c>
       <c r="B123" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>6</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J123">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -12073,10 +11693,10 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -12100,22 +11720,22 @@
         <v>5</v>
       </c>
       <c r="W123" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="X123" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="Y123" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="Z123">
-        <v>49743</v>
+        <v>49742</v>
       </c>
       <c r="AA123" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="AB123" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="AD123">
         <v>0</v>
@@ -12124,36 +11744,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>47471</v>
+        <v>40751</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>6</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J124">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -12192,22 +11812,22 @@
         <v>5</v>
       </c>
       <c r="W124" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="X124" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="Y124" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="Z124">
-        <v>49743</v>
+        <v>49742</v>
       </c>
       <c r="AA124" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="AB124" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="AD124">
         <v>0</v>
@@ -12216,15 +11836,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>40752</v>
+        <v>42758</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C125" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -12284,22 +11904,16 @@
         <v>5</v>
       </c>
       <c r="W125" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="X125" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="Y125" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="Z125">
-        <v>49743</v>
-      </c>
-      <c r="AA125" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB125" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="AD125">
         <v>0</v>
@@ -12308,15 +11922,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>41687</v>
+        <v>47516</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="C126" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -12376,39 +11990,33 @@
         <v>5</v>
       </c>
       <c r="W126" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="X126" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="Y126" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="Z126">
-        <v>49743</v>
-      </c>
-      <c r="AA126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>47662</v>
+      </c>
+      <c r="B127" t="s">
         <v>210</v>
       </c>
-      <c r="AB126" t="s">
+      <c r="C127" t="s">
         <v>211</v>
-      </c>
-      <c r="AD126">
-        <v>0</v>
-      </c>
-      <c r="AE126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>40780</v>
-      </c>
-      <c r="B127" t="s">
-        <v>216</v>
-      </c>
-      <c r="C127" t="s">
-        <v>217</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -12441,10 +12049,10 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -12468,22 +12076,16 @@
         <v>5</v>
       </c>
       <c r="W127" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="X127" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="Y127" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="Z127">
-        <v>49743</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB127" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="AD127">
         <v>0</v>
@@ -12492,15 +12094,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>47724</v>
+        <v>47756</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -12569,30 +12171,24 @@
         <v>8</v>
       </c>
       <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>49743</v>
       </c>
-      <c r="AA128" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB128" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD128">
-        <v>0</v>
-      </c>
-      <c r="AE128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>47570</v>
-      </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C129" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -12625,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -12649,25 +12245,10 @@
         <v>0</v>
       </c>
       <c r="V129" t="s">
-        <v>5</v>
-      </c>
-      <c r="W129" t="s">
-        <v>6</v>
-      </c>
-      <c r="X129" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z129">
-        <v>49743</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB129" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="AD129">
         <v>0</v>
@@ -12676,36 +12257,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>49991</v>
+        <v>42763</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H130">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I130">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -12717,13 +12298,13 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O130">
         <v>0</v>
       </c>
       <c r="P130">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -12743,8 +12324,23 @@
       <c r="V130" t="s">
         <v>5</v>
       </c>
+      <c r="W130" t="s">
+        <v>6</v>
+      </c>
+      <c r="X130" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>8</v>
+      </c>
       <c r="Z130">
-        <v>0</v>
+        <v>49743</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>213</v>
       </c>
       <c r="AD130">
         <v>0</v>
@@ -12753,36 +12349,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>49744</v>
+        <v>47471</v>
       </c>
       <c r="B131" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131">
         <v>6</v>
       </c>
       <c r="I131">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K131">
         <v>1</v>
@@ -12794,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O131">
         <v>0</v>
@@ -12818,10 +12414,25 @@
         <v>0</v>
       </c>
       <c r="V131" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W131" t="s">
+        <v>6</v>
+      </c>
+      <c r="X131" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>8</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>49743</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>213</v>
       </c>
       <c r="AD131">
         <v>0</v>
@@ -12830,36 +12441,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>41474</v>
+        <v>40752</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132">
         <v>6</v>
       </c>
       <c r="I132">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K132">
         <v>1</v>
@@ -12898,22 +12509,22 @@
         <v>5</v>
       </c>
       <c r="W132" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="X132" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="Y132" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="Z132">
-        <v>49744</v>
+        <v>49743</v>
       </c>
       <c r="AA132" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AB132" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AD132">
         <v>0</v>
@@ -12922,36 +12533,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>42755</v>
+        <v>41687</v>
       </c>
       <c r="B133" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="C133" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133">
         <v>6</v>
       </c>
       <c r="I133">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K133">
         <v>1</v>
@@ -12990,22 +12601,22 @@
         <v>5</v>
       </c>
       <c r="W133" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="X133" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="Y133" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="Z133">
-        <v>49744</v>
+        <v>49743</v>
       </c>
       <c r="AA133" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AB133" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AD133">
         <v>0</v>
@@ -13014,51 +12625,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>42761</v>
+        <v>40780</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134">
         <v>6</v>
       </c>
       <c r="I134">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
       <c r="N134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -13082,22 +12693,22 @@
         <v>5</v>
       </c>
       <c r="W134" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="X134" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="Y134" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="Z134">
-        <v>49744</v>
+        <v>49743</v>
       </c>
       <c r="AA134" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AB134" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AD134">
         <v>0</v>
@@ -13106,36 +12717,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>41747</v>
+        <v>47724</v>
       </c>
       <c r="B135" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135">
         <v>6</v>
       </c>
       <c r="I135">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K135">
         <v>1</v>
@@ -13183,51 +12794,51 @@
         <v>8</v>
       </c>
       <c r="Z135">
-        <v>49744</v>
+        <v>49743</v>
       </c>
       <c r="AA135" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>47570</v>
+      </c>
+      <c r="B136" t="s">
         <v>220</v>
       </c>
-      <c r="AB135" t="s">
+      <c r="C136" t="s">
         <v>221</v>
       </c>
-      <c r="AD135">
-        <v>0</v>
-      </c>
-      <c r="AE135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>42762</v>
-      </c>
-      <c r="B136" t="s">
-        <v>163</v>
-      </c>
-      <c r="C136" t="s">
-        <v>164</v>
-      </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136">
         <v>6</v>
       </c>
       <c r="I136">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K136">
         <v>1</v>
@@ -13275,13 +12886,13 @@
         <v>8</v>
       </c>
       <c r="Z136">
-        <v>49744</v>
+        <v>49743</v>
       </c>
       <c r="AA136" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AB136" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AD136">
         <v>0</v>
@@ -13290,36 +12901,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>45622</v>
+        <v>49991</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="C137" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="D137">
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="F137" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I137">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K137">
         <v>1</v>
@@ -13331,13 +12942,13 @@
         <v>0</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O137">
         <v>0</v>
       </c>
       <c r="P137">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -13357,40 +12968,25 @@
       <c r="V137" t="s">
         <v>5</v>
       </c>
-      <c r="W137" t="s">
-        <v>6</v>
-      </c>
-      <c r="X137" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y137" t="s">
-        <v>8</v>
-      </c>
       <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>0</v>
+      </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>49744</v>
       </c>
-      <c r="AA137" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB137" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD137">
-        <v>0</v>
-      </c>
-      <c r="AE137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>42759</v>
-      </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -13423,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -13447,25 +13043,10 @@
         <v>0</v>
       </c>
       <c r="V138" t="s">
-        <v>5</v>
-      </c>
-      <c r="W138" t="s">
-        <v>6</v>
-      </c>
-      <c r="X138" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y138" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z138">
-        <v>49744</v>
-      </c>
-      <c r="AA138" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB138" t="s">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="AD138">
         <v>0</v>
@@ -13474,15 +13055,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>42760</v>
+        <v>41474</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -13554,10 +13135,10 @@
         <v>49744</v>
       </c>
       <c r="AA139" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AB139" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AD139">
         <v>0</v>
@@ -13566,15 +13147,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>41165</v>
+        <v>42755</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -13646,10 +13227,10 @@
         <v>49744</v>
       </c>
       <c r="AA140" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AB140" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AD140">
         <v>0</v>
@@ -13658,15 +13239,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>49931</v>
+        <v>42761</v>
       </c>
       <c r="B141" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C141" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -13690,16 +13271,16 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L141" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="M141">
         <v>0</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -13723,10 +13304,25 @@
         <v>0</v>
       </c>
       <c r="V141" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="W141" t="s">
+        <v>6</v>
+      </c>
+      <c r="X141" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>8</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>49744</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB141" t="s">
+        <v>223</v>
       </c>
       <c r="AD141">
         <v>0</v>
@@ -13735,15 +13331,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>47573</v>
+        <v>41747</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -13812,18 +13408,647 @@
         <v>8</v>
       </c>
       <c r="Z142">
+        <v>49744</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD142">
+        <v>0</v>
+      </c>
+      <c r="AE142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>42762</v>
+      </c>
+      <c r="B143" t="s">
+        <v>164</v>
+      </c>
+      <c r="C143" t="s">
+        <v>165</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>6</v>
+      </c>
+      <c r="I143">
+        <v>6</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>4</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143" t="s">
+        <v>5</v>
+      </c>
+      <c r="W143" t="s">
+        <v>6</v>
+      </c>
+      <c r="X143" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z143">
+        <v>49744</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AE143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>45622</v>
+      </c>
+      <c r="B144" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" t="s">
+        <v>191</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>6</v>
+      </c>
+      <c r="I144">
+        <v>6</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144" t="s">
+        <v>4</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144" t="s">
+        <v>5</v>
+      </c>
+      <c r="W144" t="s">
+        <v>6</v>
+      </c>
+      <c r="X144" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z144">
+        <v>49744</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD144">
+        <v>0</v>
+      </c>
+      <c r="AE144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>42759</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>3</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>6</v>
+      </c>
+      <c r="I145">
+        <v>6</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145" t="s">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145" t="s">
+        <v>5</v>
+      </c>
+      <c r="W145" t="s">
+        <v>6</v>
+      </c>
+      <c r="X145" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z145">
+        <v>49744</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD145">
+        <v>0</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>42760</v>
+      </c>
+      <c r="B146" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" t="s">
+        <v>32</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>3</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>6</v>
+      </c>
+      <c r="I146">
+        <v>6</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s">
+        <v>4</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146" t="s">
+        <v>5</v>
+      </c>
+      <c r="W146" t="s">
+        <v>6</v>
+      </c>
+      <c r="X146" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z146">
+        <v>49744</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB146" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD146">
+        <v>0</v>
+      </c>
+      <c r="AE146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>41165</v>
+      </c>
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>6</v>
+      </c>
+      <c r="I147">
+        <v>6</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147" t="s">
+        <v>5</v>
+      </c>
+      <c r="W147" t="s">
+        <v>6</v>
+      </c>
+      <c r="X147" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z147">
+        <v>49744</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB147" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>49931</v>
       </c>
-      <c r="AA142" t="s">
+      <c r="B148" t="s">
         <v>78</v>
       </c>
-      <c r="AB142" t="s">
+      <c r="C148" t="s">
         <v>79</v>
       </c>
-      <c r="AD142">
-        <v>0</v>
-      </c>
-      <c r="AE142">
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>6</v>
+      </c>
+      <c r="I148">
+        <v>6</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" t="s">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AE148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>47573</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>6</v>
+      </c>
+      <c r="I149">
+        <v>6</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149" t="s">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149" t="s">
+        <v>5</v>
+      </c>
+      <c r="W149" t="s">
+        <v>6</v>
+      </c>
+      <c r="X149" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z149">
+        <v>49931</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD149">
+        <v>0</v>
+      </c>
+      <c r="AE149">
         <v>0</v>
       </c>
     </row>
@@ -13838,29 +14063,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>151</v>
       </c>
